--- a/큐넷 직무 분류.xlsx
+++ b/큐넷 직무 분류.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="685">
   <si>
     <t>국가기술자격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2750,6 +2750,14 @@
   </si>
   <si>
     <t>에너지관리산업기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡코리아 직무 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡코리아 직무 카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3077,14 +3085,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172:E182"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.25" bestFit="1" customWidth="1"/>
@@ -3094,8 +3102,14 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>684</v>
+      </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>683</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
